--- a/data/xlsx/正确率-高数2024.xlsx
+++ b/data/xlsx/正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>汤家凤辅导讲义</t>
+          <t>汤家凤讲义</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>汤家凤基础篇</t>
+          <t>汤家凤基础</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -637,7 +637,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>复习全书基础篇</t>
+          <t>复习全书基础</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -704,7 +704,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1800基础篇</t>
+          <t>1800基础</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>张宇基础篇</t>
+          <t>张宇基础</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -832,6 +832,73 @@
       <c r="M6" t="inlineStr">
         <is>
           <t>20/23=87.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>张宇强化</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>12.1-12.30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>450/585=76.9%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79/96=82.3%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>78/97=80.4%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>53/69=76.8%</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>17/27=63.0%</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>98/132=74.2%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>16/21=76.2%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>45/55=81.8%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>55/77=71.4%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>9/11=81.8%</t>
         </is>
       </c>
     </row>

--- a/data/xlsx/正确率-高数2024.xlsx
+++ b/data/xlsx/正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -902,6 +902,73 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>武忠祥基础</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1.5-1.8</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>300/316=94.9%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65/66=98.5%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>41/46=89.1%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>26/27=96.3%</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>26/27=96.3%</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>63/68=92.6%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>12/12=100%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>25/27=92.6%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>26/27=96.3%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>16/16=100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/正确率-高数2024.xlsx
+++ b/data/xlsx/正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -969,6 +969,274 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>复习全书提高</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1.8-1.17</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>880</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>12.16-1.25</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>余炳森1000基础</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.10-2.17</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>215/267=80.5%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21/29=72.4%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>49/58=84.5%</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>21/25=84%</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>19/27=70.4%</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>45/54=83.3%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>36/40=90%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>16/22=72.7%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>8/12=66.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>余炳森1000强化</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>一刷</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2.19-2.28</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>318/415=76.6%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>33/42=78.6%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>72/91=79.1%</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>36/45=80%</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>27/41=65.9%</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>68/79=86.1%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>44/60=73.3%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>24/39=61.5%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>14/18=77.8%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/正确率-高数2024.xlsx
+++ b/data/xlsx/正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,6 +1237,73 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>张宇基础</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>3.1-3.12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>541/596=90.8%</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>143/155=92.3%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>98/105=93.3%</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>36/36=100%</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>33/36=91.7%</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>105/117=89.7%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>23/27=85.2%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>33/41=80.5%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>50/56=89.3%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>20/23=87%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/正确率-高数2024.xlsx
+++ b/data/xlsx/正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,6 +1304,73 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>武忠祥基础</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5.9-5.11</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>315/316=99.7%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>66/66=100%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>46/46=100%</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>27/27=100%</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>27/27=100%</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>68/68=100%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>12/12=100%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>27/27=100%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>26/27=96.3%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16/16=100%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/xlsx/正确率-高数2024.xlsx
+++ b/data/xlsx/正确率-高数2024.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1371,6 +1371,73 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>汤家凤</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>二刷</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5.19-5.22</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>188/227=82.9%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>31/35=88.6%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>68/73=93.2%</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>7/10=70%</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>12/14=85.7%</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>34/44=77.3%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>12/16=75%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>5/7=71.4%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>19/28=67.9%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
